--- a/STC/Literature Survey.xlsx
+++ b/STC/Literature Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College-Stuff-5th-Sem\STC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431E85A8-F9BC-43DF-B187-7C641473D739}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE6E294-20AC-4968-9ABB-B816E2AFB61E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,7 +664,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
